--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mmp12</t>
   </si>
   <si>
     <t>Plaur</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.62120916028106</v>
+        <v>1.941457333333333</v>
       </c>
       <c r="H2">
-        <v>8.62120916028106</v>
+        <v>5.824372</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1591458479631234</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1591458479631234</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N2">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O2">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P2">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q2">
-        <v>124.5027777334769</v>
+        <v>79.45860736568576</v>
       </c>
       <c r="R2">
-        <v>124.5027777334769</v>
+        <v>715.127466291172</v>
       </c>
       <c r="S2">
-        <v>0.2007553299197844</v>
+        <v>0.0624109781637423</v>
       </c>
       <c r="T2">
-        <v>0.2007553299197844</v>
+        <v>0.0624109781637423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.62120916028106</v>
+        <v>1.941457333333333</v>
       </c>
       <c r="H3">
-        <v>8.62120916028106</v>
+        <v>5.824372</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1591458479631234</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1591458479631234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N3">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P3">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q3">
-        <v>65.03570456535547</v>
+        <v>14.75163611809111</v>
       </c>
       <c r="R3">
-        <v>65.03570456535547</v>
+        <v>132.76472506282</v>
       </c>
       <c r="S3">
-        <v>0.1048672532795462</v>
+        <v>0.01158671250565166</v>
       </c>
       <c r="T3">
-        <v>0.1048672532795462</v>
+        <v>0.01158671250565166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.62120916028106</v>
+        <v>1.941457333333333</v>
       </c>
       <c r="H4">
-        <v>8.62120916028106</v>
+        <v>5.824372</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1591458479631234</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1591458479631234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N4">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O4">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P4">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q4">
-        <v>376.625826044124</v>
+        <v>95.91042814846755</v>
       </c>
       <c r="R4">
-        <v>376.625826044124</v>
+        <v>863.1938533362079</v>
       </c>
       <c r="S4">
-        <v>0.6072928117769149</v>
+        <v>0.07533310531483314</v>
       </c>
       <c r="T4">
-        <v>0.6072928117769149</v>
+        <v>0.07533310531483313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>1.941457333333333</v>
+      </c>
+      <c r="H5">
+        <v>5.824372</v>
+      </c>
+      <c r="I5">
+        <v>0.1591458479631234</v>
+      </c>
+      <c r="J5">
+        <v>0.1591458479631234</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.436425</v>
+      </c>
+      <c r="N5">
+        <v>19.309275</v>
+      </c>
+      <c r="O5">
+        <v>0.06167331478965488</v>
+      </c>
+      <c r="P5">
+        <v>0.06167331478965488</v>
+      </c>
+      <c r="Q5">
+        <v>12.4960445167</v>
+      </c>
+      <c r="R5">
+        <v>112.4644006503</v>
+      </c>
+      <c r="S5">
+        <v>0.009815051978896264</v>
+      </c>
+      <c r="T5">
+        <v>0.009815051978896263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10.23643066666667</v>
+      </c>
+      <c r="H6">
+        <v>30.709292</v>
+      </c>
+      <c r="I6">
+        <v>0.8391044245949882</v>
+      </c>
+      <c r="J6">
+        <v>0.8391044245949881</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>40.92730033333333</v>
+      </c>
+      <c r="N6">
+        <v>122.781901</v>
+      </c>
+      <c r="O6">
+        <v>0.3921621516522625</v>
+      </c>
+      <c r="P6">
+        <v>0.3921621516522625</v>
+      </c>
+      <c r="Q6">
+        <v>418.9494722360102</v>
+      </c>
+      <c r="R6">
+        <v>3770.545250124092</v>
+      </c>
+      <c r="S6">
+        <v>0.3290649966101043</v>
+      </c>
+      <c r="T6">
+        <v>0.3290649966101042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10.23643066666667</v>
+      </c>
+      <c r="H7">
+        <v>30.709292</v>
+      </c>
+      <c r="I7">
+        <v>0.8391044245949882</v>
+      </c>
+      <c r="J7">
+        <v>0.8391044245949881</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.598228333333334</v>
+      </c>
+      <c r="N7">
+        <v>22.794685</v>
+      </c>
+      <c r="O7">
+        <v>0.07280562235174674</v>
+      </c>
+      <c r="P7">
+        <v>0.07280562235174673</v>
+      </c>
+      <c r="Q7">
+        <v>77.77873752366889</v>
+      </c>
+      <c r="R7">
+        <v>700.0086377130201</v>
+      </c>
+      <c r="S7">
+        <v>0.06109151985074247</v>
+      </c>
+      <c r="T7">
+        <v>0.06109151985074245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.23643066666667</v>
+      </c>
+      <c r="H8">
+        <v>30.709292</v>
+      </c>
+      <c r="I8">
+        <v>0.8391044245949882</v>
+      </c>
+      <c r="J8">
+        <v>0.8391044245949881</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>49.40125466666666</v>
+      </c>
+      <c r="N8">
+        <v>148.203764</v>
+      </c>
+      <c r="O8">
+        <v>0.4733589112063359</v>
+      </c>
+      <c r="P8">
+        <v>0.4733589112063358</v>
+      </c>
+      <c r="Q8">
+        <v>505.6925182416764</v>
+      </c>
+      <c r="R8">
+        <v>4551.232664175088</v>
+      </c>
+      <c r="S8">
+        <v>0.3971975568147026</v>
+      </c>
+      <c r="T8">
+        <v>0.3971975568147025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.23643066666667</v>
+      </c>
+      <c r="H9">
+        <v>30.709292</v>
+      </c>
+      <c r="I9">
+        <v>0.8391044245949882</v>
+      </c>
+      <c r="J9">
+        <v>0.8391044245949881</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.436425</v>
+      </c>
+      <c r="N9">
+        <v>19.309275</v>
+      </c>
+      <c r="O9">
+        <v>0.06167331478965488</v>
+      </c>
+      <c r="P9">
+        <v>0.06167331478965488</v>
+      </c>
+      <c r="Q9">
+        <v>65.8860182537</v>
+      </c>
+      <c r="R9">
+        <v>592.9741642833</v>
+      </c>
+      <c r="S9">
+        <v>0.05175035131943894</v>
+      </c>
+      <c r="T9">
+        <v>0.05175035131943893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02134533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.064036</v>
+      </c>
+      <c r="I10">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="J10">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>40.92730033333333</v>
+      </c>
+      <c r="N10">
+        <v>122.781901</v>
+      </c>
+      <c r="O10">
+        <v>0.3921621516522625</v>
+      </c>
+      <c r="P10">
+        <v>0.3921621516522625</v>
+      </c>
+      <c r="Q10">
+        <v>0.8736068680484442</v>
+      </c>
+      <c r="R10">
+        <v>7.862461812435999</v>
+      </c>
+      <c r="S10">
+        <v>0.0006861768784159737</v>
+      </c>
+      <c r="T10">
+        <v>0.0006861768784159736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>8.62120916028106</v>
-      </c>
-      <c r="H5">
-        <v>8.62120916028106</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.26448193664837</v>
-      </c>
-      <c r="N5">
-        <v>6.26448193664837</v>
-      </c>
-      <c r="O5">
-        <v>0.08708460502375467</v>
-      </c>
-      <c r="P5">
-        <v>0.08708460502375467</v>
-      </c>
-      <c r="Q5">
-        <v>54.00740905664816</v>
-      </c>
-      <c r="R5">
-        <v>54.00740905664816</v>
-      </c>
-      <c r="S5">
-        <v>0.08708460502375467</v>
-      </c>
-      <c r="T5">
-        <v>0.08708460502375467</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02134533333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.064036</v>
+      </c>
+      <c r="I11">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="J11">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.598228333333334</v>
+      </c>
+      <c r="N11">
+        <v>22.794685</v>
+      </c>
+      <c r="O11">
+        <v>0.07280562235174674</v>
+      </c>
+      <c r="P11">
+        <v>0.07280562235174673</v>
+      </c>
+      <c r="Q11">
+        <v>0.1621867165177778</v>
+      </c>
+      <c r="R11">
+        <v>1.45968044866</v>
+      </c>
+      <c r="S11">
+        <v>0.0001273899953526165</v>
+      </c>
+      <c r="T11">
+        <v>0.0001273899953526165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02134533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.064036</v>
+      </c>
+      <c r="I12">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="J12">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>49.40125466666666</v>
+      </c>
+      <c r="N12">
+        <v>148.203764</v>
+      </c>
+      <c r="O12">
+        <v>0.4733589112063359</v>
+      </c>
+      <c r="P12">
+        <v>0.4733589112063358</v>
+      </c>
+      <c r="Q12">
+        <v>1.054486247944889</v>
+      </c>
+      <c r="R12">
+        <v>9.490376231503998</v>
+      </c>
+      <c r="S12">
+        <v>0.0008282490768001519</v>
+      </c>
+      <c r="T12">
+        <v>0.0008282490768001517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02134533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.064036</v>
+      </c>
+      <c r="I13">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="J13">
+        <v>0.001749727441888424</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.436425</v>
+      </c>
+      <c r="N13">
+        <v>19.309275</v>
+      </c>
+      <c r="O13">
+        <v>0.06167331478965488</v>
+      </c>
+      <c r="P13">
+        <v>0.06167331478965488</v>
+      </c>
+      <c r="Q13">
+        <v>0.1373876371</v>
+      </c>
+      <c r="R13">
+        <v>1.2364887339</v>
+      </c>
+      <c r="S13">
+        <v>0.0001079114913196824</v>
+      </c>
+      <c r="T13">
+        <v>0.0001079114913196824</v>
       </c>
     </row>
   </sheetData>
